--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>id</t>
   </si>
@@ -369,7 +369,7 @@
     <t>special_parameter_value</t>
   </si>
   <si>
-    <t>next_kill</t>
+    <t>next_skill</t>
   </si>
   <si>
     <t>skill_describe</t>
@@ -393,7 +393,10 @@
     <t>point_type</t>
   </si>
   <si>
-    <t>"1,100"*a+a2+a3</t>
+    <t>210,010,0</t>
+  </si>
+  <si>
+    <t>"1,100"*a1+a2+a3</t>
   </si>
   <si>
     <t>1001,1002</t>
@@ -402,7 +405,16 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>"1,102"*a</t>
+    <t>测试技能1</t>
+  </si>
+  <si>
+    <t>0.2,</t>
+  </si>
+  <si>
+    <t>"1,102"*a1</t>
+  </si>
+  <si>
+    <t>测试技能2</t>
   </si>
 </sst>
 </file>
@@ -412,8 +424,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -425,14 +437,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,7 +488,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,8 +526,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,7 +536,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,16 +558,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,14 +575,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,13 +589,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,31 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,133 +763,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,6 +780,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -791,15 +812,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -815,6 +827,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -826,21 +853,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,149 +888,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,9 +1038,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1446,7 +1455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>100001</v>
       </c>
@@ -1456,29 +1465,44 @@
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
-        <v>2100100</v>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2">
         <v>35001</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>12346</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>100002</v>
       </c>
@@ -1488,25 +1512,40 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.2</v>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
       <c r="J3">
         <v>35002</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>12345</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
     </row>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-特殊效果值类型列表</t>
+特殊效果值类型列表
+</t>
         </r>
       </text>
     </comment>
@@ -346,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -393,16 +394,10 @@
     <t>point_type</t>
   </si>
   <si>
-    <t>210,010,0</t>
+    <t>2,100,100</t>
   </si>
   <si>
     <t>"1,100"*a1+a2+a3</t>
-  </si>
-  <si>
-    <t>1001,1002</t>
-  </si>
-  <si>
-    <t>0,0</t>
   </si>
   <si>
     <t>测试技能1</t>
@@ -424,8 +419,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -433,35 +428,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,44 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -528,17 +456,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,8 +478,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -567,14 +537,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,187 +584,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,26 +775,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -823,6 +798,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,15 +841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -880,6 +855,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -888,10 +883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,133 +895,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1391,7 +1386,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1471,17 +1466,13 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>35001</v>
@@ -1513,22 +1504,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>35002</v>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="27600" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -428,6 +428,87 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,18 +528,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -478,100 +559,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -584,187 +584,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,39 +775,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -841,6 +808,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -856,22 +861,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,10 +883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,133 +895,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,7 +1386,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1401,6 +1401,7 @@
     <col min="9" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1466,7 +1467,6 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1509,7 +1509,6 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3">
         <v>0</v>
@@ -1533,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:3">

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="11625"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
     <t>"1,100"*a1+a2+a3</t>
   </si>
   <si>
-    <t>测试技能1</t>
+    <t>火柱伤害技能，造成"n"点伤害</t>
   </si>
   <si>
     <t>0.2,</t>
@@ -409,7 +409,7 @@
     <t>"1,102"*a1</t>
   </si>
   <si>
-    <t>测试技能2</t>
+    <t>治疗技能，造成"n"点恢复</t>
   </si>
 </sst>
 </file>
@@ -417,9 +417,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -432,13 +432,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -447,66 +507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,40 +521,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,25 +584,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,157 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,50 +778,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +814,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -860,21 +875,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -883,145 +883,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,7 +1386,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1398,7 +1398,8 @@
     <col min="5" max="5" width="73.75" customWidth="1"/>
     <col min="6" max="6" width="23.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="9" max="10" width="16" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="19.375" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
@@ -1484,10 +1485,10 @@
         <v>12346</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1526,10 +1527,10 @@
         <v>12345</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="O3">
         <v>0</v>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>id</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>火柱伤害技能，造成"n"点伤害</t>
+  </si>
+  <si>
+    <t>shape_1</t>
   </si>
   <si>
     <t>0.2,</t>
@@ -417,9 +420,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -445,6 +448,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -452,16 +463,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,83 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -584,49 +587,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,133 +755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,6 +778,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -795,35 +813,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +839,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -854,9 +855,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,133 +898,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1481,8 +1484,8 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>12346</v>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
       <c r="M2">
         <v>4</v>
@@ -1505,17 +1508,17 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>35002</v>
@@ -1523,8 +1526,8 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>12345</v>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
       <c r="M3">
         <v>1</v>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="22695" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -435,97 +435,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,9 +464,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,8 +546,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,17 +556,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -587,187 +587,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +778,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -792,6 +816,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,9 +846,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,50 +878,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -886,145 +886,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1388,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22695" windowHeight="8655"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -450,7 +450,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,38 +472,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,7 +508,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,23 +540,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,25 +593,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,151 +755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,30 +778,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -816,6 +792,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +829,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -863,21 +878,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -886,139 +886,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -450,7 +450,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,120 +577,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -593,19 +593,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,157 +695,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +778,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -792,24 +831,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,36 +850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -866,6 +857,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,145 +886,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>id</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>治疗技能，造成"n"点恢复</t>
+  </si>
+  <si>
+    <t>shape_2</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -435,6 +438,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -442,60 +452,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,30 +514,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,6 +528,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -555,6 +551,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -564,17 +575,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -587,13 +590,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,157 +722,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,17 +784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,15 +804,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,16 +824,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,8 +852,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,8 +861,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,10 +889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,133 +901,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1388,8 +1391,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1527,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>1</v>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-效果类型</t>
+效果类型
+1=单次AOE伤害
+2=单次AOE治疗
+3=造成A1群体伤害，眩晕状态造成A2次数伤害
+</t>
         </r>
       </text>
     </comment>
@@ -64,7 +68,7 @@
 目标类型
 1 为释放者
 2 为目标
-</t>
+0 继承上技能目标</t>
         </r>
       </text>
     </comment>
@@ -109,7 +113,16 @@
           </rPr>
           <t xml:space="preserve">
 计算公式
-“”用于表示取属性值,格式为”1,100”前面的1和target_type对应，后面的100为属性id</t>
+“”用于表示取属性值,格式为”1,100”
+前面
+1=释法者
+2=目标
+3=技能本身
+后面
+1&amp;2后面是对应属性
+3后面对应的是：
+10001=技能层数
+</t>
         </r>
       </text>
     </comment>
@@ -246,7 +259,8 @@
 指示器形状
 1 为椭圆
 2 为圆
-3 为矩形</t>
+3 为矩形
+4 单体准星</t>
         </r>
       </text>
     </comment>
@@ -347,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>id</t>
   </si>
@@ -416,6 +430,78 @@
   </si>
   <si>
     <t>shape_2</t>
+  </si>
+  <si>
+    <t>0.6,</t>
+  </si>
+  <si>
+    <t>"1,100"*a1</t>
+  </si>
+  <si>
+    <t>A1,A2</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>对面前目标造成4次伤害，每次造成"n"点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
+  </si>
+  <si>
+    <t>0.5,</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>对面前目标造成5次伤害，每次造成"n"点伤害</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>对范围内目标造成5次，每次10点真实伤害</t>
+  </si>
+  <si>
+    <t>0.3,</t>
+  </si>
+  <si>
+    <t>对范围目标造成"n"的伤害，并附加1层易伤效果</t>
+  </si>
+  <si>
+    <t>0.3,0.1</t>
+  </si>
+  <si>
+    <t>("2,102"-"2,103")*a1+(2,200001,10001)*"1,100"*a2</t>
+  </si>
+  <si>
+    <t>对目标造成（已损失血量*30%的伤害），并引爆所有易伤效果，每层易伤效果造成攻击力*10%点的真实伤害</t>
+  </si>
+  <si>
+    <t>A1,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>消耗20%最大生命值，获取5个水晶</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>抽两张牌</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>"3,10001"*a1</t>
+  </si>
+  <si>
+    <t>每次受到伤害，额外受到易伤层数点的真实伤害</t>
   </si>
 </sst>
 </file>
@@ -424,14 +510,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -452,22 +554,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,7 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,14 +630,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -513,39 +638,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,28 +666,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -590,13 +676,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,169 +838,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,10 +870,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -808,43 +926,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,16 +939,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +958,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -889,10 +975,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,133 +987,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,13 +1475,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
@@ -1404,7 +1490,7 @@
     <col min="5" max="5" width="73.75" customWidth="1"/>
     <col min="6" max="6" width="23.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="82" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="19.375" customWidth="1"/>
@@ -1542,8 +1628,348 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>100003</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>35001</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>100004</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>35001</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>100005</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>35001</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>100006</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>200001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>35001</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>100007</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>35001</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>100008</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>100009</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>100002</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>35002</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>0.2</v>
+      </c>
+      <c r="N11">
+        <v>0.2</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>200001</v>
+      </c>
+      <c r="B12">
+        <v>10001</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,14 @@
           </rPr>
           <t xml:space="preserve">
 效果类型
-1=单次AOE伤害
-2=单次AOE治疗
-3=造成A1群体伤害，眩晕状态造成A2次数伤害
-</t>
+1=单次伤害
+2=单次治疗
+3=造成A1伤害，眩晕状态造成A2次数伤害
+4=生命值换水晶A1个
+5=额外发牌A1张
+6=造成A1次伤害
+--------------------
+10001=每一次攻击造成额外伤害</t>
         </r>
       </text>
     </comment>
@@ -118,9 +122,17 @@
 1=释法者
 2=目标
 3=技能本身
-后面
-1&amp;2后面是对应属性
-3后面对应的是：
+4 = 释放者身上的技能
+5 =目标
+身上的技能后面
+如果为三个参数
+1 为取值的对象
+2 为取值的技能id
+3 为技能的属性ID
+如果为两个参数
+1 为取值对象
+2 为对象的属性id
+3技能属性ID：
 10001=技能层数
 </t>
         </r>
@@ -144,8 +156,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-特殊效果值类型列表
-</t>
+特殊效果值列表</t>
         </r>
       </text>
     </comment>
@@ -167,7 +178,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-特殊效果值列表</t>
+后续技能</t>
         </r>
       </text>
     </comment>
@@ -189,7 +200,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-后续技能</t>
+技能描述</t>
         </r>
       </text>
     </comment>
@@ -211,34 +222,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能描述</t>
+技能特效
+</t>
         </r>
       </text>
     </comment>
     <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>zsbin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-技能特效
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +249,31 @@
 1 为椭圆
 2 为圆
 3 为矩形
-4 单体准星</t>
+4 单体准星
+5 为前置技能的目标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zsbin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+指示器图片资源
+</t>
         </r>
       </text>
     </comment>
@@ -282,8 +295,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-指示器图片资源
-</t>
+长</t>
         </r>
       </text>
     </comment>
@@ -305,33 +317,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-长</t>
+宽</t>
         </r>
       </text>
     </comment>
     <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>zsbin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-宽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>id</t>
   </si>
@@ -378,9 +368,6 @@
     <t>calculator</t>
   </si>
   <si>
-    <t>special_parameter_key</t>
-  </si>
-  <si>
     <t>special_parameter_value</t>
   </si>
   <si>
@@ -438,9 +425,6 @@
     <t>"1,100"*a1</t>
   </si>
   <si>
-    <t>A1,A2</t>
-  </si>
-  <si>
     <t>4,6</t>
   </si>
   <si>
@@ -450,7 +434,7 @@
     <t>0.5,</t>
   </si>
   <si>
-    <t>5,5</t>
+    <t>5,</t>
   </si>
   <si>
     <t>对面前目标造成5次伤害，每次造成"n"点伤害</t>
@@ -474,16 +458,10 @@
     <t>0.3,0.1</t>
   </si>
   <si>
-    <t>("2,102"-"2,103")*a1+(2,200001,10001)*"1,100"*a2</t>
+    <t>("2,102"-"2,103")*a1+"5,200001,10001"*"1,100"*a2</t>
   </si>
   <si>
     <t>对目标造成（已损失血量*30%的伤害），并引爆所有易伤效果，每层易伤效果造成攻击力*10%点的真实伤害</t>
-  </si>
-  <si>
-    <t>A1,</t>
-  </si>
-  <si>
-    <t>5,</t>
   </si>
   <si>
     <t>消耗20%最大生命值，获取5个水晶</t>
@@ -509,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -523,11 +501,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,14 +532,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,6 +540,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,15 +577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,10 +598,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,32 +624,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,23 +644,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,91 +654,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,85 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,17 +854,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,11 +895,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,41 +920,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,141 +971,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1475,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1488,16 +1478,15 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="73.75" customWidth="1"/>
-    <col min="6" max="6" width="23.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="9" max="9" width="82" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="8" max="8" width="82" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1502,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1540,435 +1529,426 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="1">
         <v>100001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1">
+        <v>35001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
-        <v>35001</v>
-      </c>
-      <c r="K2">
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="A3" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1">
+        <v>35002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>100002</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>35002</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0.4</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>100003</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
+      <c r="I4">
+        <v>35001</v>
       </c>
       <c r="J4">
-        <v>35001</v>
-      </c>
-      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
+    <row r="5" s="1" customFormat="1" spans="1:14">
+      <c r="A5" s="1">
         <v>100004</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" s="1">
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="1">
         <v>35001</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5">
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="N5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
+    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="A6" s="1">
         <v>100005</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" s="1">
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="1">
         <v>35001</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6">
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="N6">
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="O6">
+      <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
+    <row r="7" s="1" customFormat="1" spans="1:14">
+      <c r="A7" s="1">
         <v>100006</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7">
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
         <v>200001</v>
       </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7">
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1">
         <v>35001</v>
       </c>
-      <c r="K7">
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7">
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="N7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
+    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="A8" s="1">
         <v>100007</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="1">
         <v>35001</v>
       </c>
-      <c r="K8">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1">
         <v>4</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>100008</v>
-      </c>
-      <c r="B9">
+    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="A9" s="1">
+        <v>300001</v>
+      </c>
+      <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:10">
+      <c r="A10" s="1">
+        <v>100009</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="A11" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I11" s="1">
+        <v>35002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="A12" s="1">
+        <v>200001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>100009</v>
-      </c>
-      <c r="B10">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1">
         <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>100002</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11">
-        <v>35002</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11">
-        <v>0.2</v>
-      </c>
-      <c r="N11">
-        <v>0.2</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>200001</v>
-      </c>
-      <c r="B12">
-        <v>10001</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <t>"1,100"*a1+a2+a3</t>
   </si>
   <si>
-    <t>火柱伤害技能，造成"n"点伤害</t>
+    <t>火柱伤害技能，造成&amp;n点伤害</t>
   </si>
   <si>
     <t>shape_1</t>
@@ -413,7 +413,7 @@
     <t>"1,102"*a1</t>
   </si>
   <si>
-    <t>治疗技能，造成"n"点恢复</t>
+    <t>治疗技能，造成&amp;n点恢复</t>
   </si>
   <si>
     <t>shape_2</t>
@@ -428,7 +428,7 @@
     <t>4,6</t>
   </si>
   <si>
-    <t>对面前目标造成4次伤害，每次造成"n"点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
+    <t>对面前目标造成4次伤害，每次造成&amp;n点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
   </si>
   <si>
     <t>0.5,</t>
@@ -437,7 +437,7 @@
     <t>5,</t>
   </si>
   <si>
-    <t>对面前目标造成5次伤害，每次造成"n"点伤害</t>
+    <t>对面前目标造成5次伤害，每次造成&amp;n点伤害</t>
   </si>
   <si>
     <t>10,</t>
@@ -452,7 +452,7 @@
     <t>0.3,</t>
   </si>
   <si>
-    <t>对范围目标造成"n"的伤害，并附加1层易伤效果</t>
+    <t>对范围目标造成&amp;n的伤害，并附加1层易伤效果</t>
   </si>
   <si>
     <t>0.3,0.1</t>
@@ -487,9 +487,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -498,6 +498,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,6 +518,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,28 +570,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -562,29 +578,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,33 +608,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,6 +629,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -666,25 +666,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,151 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,9 +856,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,21 +924,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,41 +951,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -959,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,133 +971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,8 +1467,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,15 +487,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -510,14 +539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,18 +553,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,14 +600,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -585,31 +622,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,28 +644,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -660,181 +660,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,41 +865,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,8 +901,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,133 +971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,8 +1467,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <t>"1,100"*a1+a2+a3</t>
   </si>
   <si>
-    <t>火柱伤害技能，造成&amp;n点伤害</t>
+    <t>火柱伤害技能，造成"n"点伤害</t>
   </si>
   <si>
     <t>shape_1</t>
@@ -413,7 +413,7 @@
     <t>"1,102"*a1</t>
   </si>
   <si>
-    <t>治疗技能，造成&amp;n点恢复</t>
+    <t>治疗技能，造成"n"点恢复</t>
   </si>
   <si>
     <t>shape_2</t>
@@ -428,7 +428,7 @@
     <t>4,6</t>
   </si>
   <si>
-    <t>对面前目标造成4次伤害，每次造成&amp;n点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
+    <t>对面前目标造成4次伤害，每次造成"n"点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
   </si>
   <si>
     <t>0.5,</t>
@@ -437,7 +437,7 @@
     <t>5,</t>
   </si>
   <si>
-    <t>对面前目标造成5次伤害，每次造成&amp;n点伤害</t>
+    <t>对面前目标造成5次伤害，每次造成"n"点伤害</t>
   </si>
   <si>
     <t>10,</t>
@@ -452,7 +452,7 @@
     <t>0.3,</t>
   </si>
   <si>
-    <t>对范围目标造成&amp;n的伤害，并附加1层易伤效果</t>
+    <t>对范围目标造成"n"的伤害，并附加1层易伤效果</t>
   </si>
   <si>
     <t>0.3,0.1</t>
@@ -488,8 +488,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -509,7 +509,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +526,60 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,7 +600,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +615,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,81 +637,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -660,6 +660,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -672,175 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,17 +851,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -884,6 +873,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -898,26 +902,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,17 +941,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,133 +971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,8 +1467,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1684,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="1">
-        <v>35001</v>
+        <v>35004</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="1">
-        <v>35001</v>
+        <v>35005</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="1">
-        <v>35001</v>
+        <v>35006</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>36</v>
       </c>
       <c r="I8" s="1">
-        <v>35001</v>
+        <v>35007</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="28080" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$18</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -46,8 +49,13 @@
 4=生命值换水晶A1个
 5=额外发牌A1张
 6=造成A1次伤害
+7=造成A1效果，如果眩晕造成A2效果
+8=如果单位死亡，则恢复释放者造成伤害A1倍数生命
+9=造成目标范围内buff乘A1倍
+10=对目标范围造成buff1(A1,A2)+buff2(A3)
 --------------------
-10001=每一次攻击造成额外伤害</t>
+10001=每一次攻击造成额外伤害
+10002=眩晕</t>
         </r>
       </text>
     </comment>
@@ -351,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>id</t>
   </si>
@@ -452,6 +460,9 @@
     <t>0.3,</t>
   </si>
   <si>
+    <t>1,</t>
+  </si>
+  <si>
     <t>对范围目标造成"n"的伤害，并附加1层易伤效果</t>
   </si>
   <si>
@@ -464,22 +475,55 @@
     <t>对目标造成（已损失血量*30%的伤害），并引爆所有易伤效果，每层易伤效果造成攻击力*10%点的真实伤害</t>
   </si>
   <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>抽两张牌</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>对范围目标施加3层易伤效果，如果目标生命值不为满状态，额外施加一层易伤效果</t>
+  </si>
+  <si>
+    <t>1.5,</t>
+  </si>
+  <si>
+    <t>对目标造成(150%攻击力的伤害），如果这个技能杀死目标，回复自身等同于伤害值的生命</t>
+  </si>
+  <si>
+    <t>目标范围内的所有敌方的易伤层数翻倍</t>
+  </si>
+  <si>
+    <t>2,3,3</t>
+  </si>
+  <si>
+    <t>200002,200001</t>
+  </si>
+  <si>
+    <t>晕眩目标范围内的敌人2到3秒，并附加3层易伤效果</t>
+  </si>
+  <si>
+    <t>"3,10001"*a1</t>
+  </si>
+  <si>
+    <t>每次受到伤害，额外受到易伤层数点的真实伤害</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>眩晕：无法移动、无法攻击和无法施法</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>接下来的每一次伤害都会治疗自己，治疗效果为自身攻击力*10%，这个效果持续3秒</t>
+  </si>
+  <si>
     <t>消耗20%最大生命值，获取5个水晶</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>抽两张牌</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>"3,10001"*a1</t>
-  </si>
-  <si>
-    <t>每次受到伤害，额外受到易伤层数点的真实伤害</t>
   </si>
 </sst>
 </file>
@@ -487,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -508,10 +552,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,7 +630,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,94 +667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,8 +681,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,79 +704,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,97 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,47 +907,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,7 +932,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,7 +1012,7 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,143 +1021,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1171,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,10 +1527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1479,6 +1541,7 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="73.75" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
@@ -1505,7 +1568,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1537,17 +1600,17 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1588,8 +1651,8 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1621,7 +1684,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -1633,7 +1696,7 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" t="s">
@@ -1665,7 +1728,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1677,7 +1740,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1709,7 +1772,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1721,7 +1784,7 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1746,44 +1809,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:14">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" spans="1:14">
+      <c r="A7" s="2">
         <v>100006</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8">
         <v>200001</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2">
         <v>35006</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1794,20 +1860,20 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1">
         <v>35007</v>
@@ -1828,14 +1894,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
+    <row r="9" s="1" customFormat="1" spans="1:14">
       <c r="A9" s="1">
-        <v>300001</v>
+        <v>100008</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1844,17 +1910,30 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>35002</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
@@ -1864,7 +1943,7 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -1873,7 +1952,7 @@
       <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1883,75 +1962,301 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:14">
-      <c r="A11" s="1">
-        <v>100002</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="11" s="2" customFormat="1" spans="1:14">
+      <c r="A11" s="2">
+        <v>100010</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="8">
+        <v>200001</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2">
+        <v>35001</v>
+      </c>
+      <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:14">
+      <c r="A12" s="2">
+        <v>100011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2">
+        <v>35001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:14">
+      <c r="A13" s="2">
+        <v>100012</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2">
+        <v>35001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:14">
+      <c r="A14" s="2">
+        <v>100013</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="2">
+        <v>35001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:10">
+      <c r="A15" s="1">
+        <v>200001</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:14">
+      <c r="A16">
+        <v>200002</v>
+      </c>
+      <c r="B16">
+        <v>10002</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:14">
+      <c r="A17" s="2">
+        <v>200003</v>
+      </c>
+      <c r="B17">
+        <v>10003</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>300001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1">
-        <v>35002</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
-      <c r="A12" s="1">
-        <v>200001</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5</v>
-      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N18">
+    <sortState ref="A2:N18">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="5895"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,6 +463,9 @@
     <t>1,</t>
   </si>
   <si>
+    <t>200001,</t>
+  </si>
+  <si>
     <t>对范围目标造成"n"的伤害，并附加1层易伤效果</t>
   </si>
   <si>
@@ -515,9 +518,6 @@
   </si>
   <si>
     <t>眩晕：无法移动、无法攻击和无法施法</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>接下来的每一次伤害都会治疗自己，治疗效果为自身攻击力*10%，这个效果持续3秒</t>
@@ -531,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -547,6 +547,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +613,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,31 +659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,37 +675,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,19 +710,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,19 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,127 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,30 +901,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -954,9 +930,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,11 +995,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,145 +1009,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,14 +1529,14 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="73.75" customWidth="1"/>
@@ -1610,9 +1610,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,9 +1650,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,9 +1692,7 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
@@ -1740,9 +1734,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1784,9 +1776,7 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1828,11 +1818,11 @@
       <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8">
-        <v>200001</v>
+      <c r="G7" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
         <v>35006</v>
@@ -1864,16 +1854,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1">
         <v>35007</v>
@@ -1911,9 +1899,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1950,13 +1936,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1976,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="8">
-        <v>200001</v>
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
         <v>35001</v>
@@ -2014,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -2024,7 +2008,7 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>35001</v>
@@ -2059,11 +2043,11 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>35001</v>
@@ -2098,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2">
         <v>35001</v>
@@ -2139,13 +2123,11 @@
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -2166,13 +2148,11 @@
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16"/>
       <c r="J16">
@@ -2204,9 +2184,7 @@
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" t="s">
         <v>53</v>
       </c>
@@ -2236,9 +2214,7 @@
       <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,7 +2229,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N18">
-    <sortState ref="A2:N18">
+    <sortState ref="A1:N18">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -546,14 +546,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,15 +576,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,44 +594,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,6 +613,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -659,16 +658,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,7 +683,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,13 +710,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,169 +872,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,9 +906,68 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,26 +987,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -962,45 +1001,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1009,10 +1009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,133 +1021,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1692,7 +1692,6 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -531,9 +531,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -545,8 +545,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,6 +624,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,25 +651,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,29 +669,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,46 +677,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,181 +710,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,13 +904,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,11 +943,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,17 +967,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,21 +1001,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1009,10 +1009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,19 +1021,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,112 +1042,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>id</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>接下来的每一次伤害都会治疗自己，治疗效果为自身攻击力*10%，这个效果持续3秒</t>
+  </si>
+  <si>
+    <t>5,20</t>
   </si>
   <si>
     <t>消耗20%最大生命值，获取5个水晶</t>
@@ -531,12 +534,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,9 +548,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,19 +593,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,44 +638,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,32 +676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,8 +691,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,187 +720,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,25 +914,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -943,17 +940,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,28 +982,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,10 +1019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,137 +1031,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,6 +1174,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1177,6 +1190,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,8 +1548,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="L$1:L$1048576 M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1546,6 +1565,7 @@
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
     <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="13" width="9" style="4"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1583,10 +1603,10 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1600,17 +1620,17 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,10 +1643,10 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="10">
         <v>4</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="10">
         <v>2</v>
       </c>
       <c r="N2" s="1">
@@ -1649,8 +1669,8 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1663,10 +1683,10 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="10">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="10">
         <v>0.4</v>
       </c>
       <c r="N3" s="1">
@@ -1680,7 +1700,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -1704,10 +1724,10 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>2</v>
       </c>
       <c r="N4">
@@ -1721,7 +1741,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1733,7 +1753,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1746,10 +1766,10 @@
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="10">
         <v>4</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="10">
         <v>2</v>
       </c>
       <c r="N5" s="1">
@@ -1763,7 +1783,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1775,7 +1795,7 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1788,10 +1808,10 @@
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="10">
         <v>4</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="10">
         <v>2</v>
       </c>
       <c r="N6" s="1">
@@ -1805,7 +1825,7 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1817,7 +1837,7 @@
       <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1832,10 +1852,10 @@
       <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="11">
         <v>4</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="11">
         <v>2</v>
       </c>
       <c r="N7" s="2">
@@ -1849,7 +1869,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1858,7 +1878,7 @@
       <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1871,17 +1891,17 @@
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="10">
         <v>4</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="10">
         <v>2</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:14">
+    <row r="9" s="1" customFormat="1" spans="1:13">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
@@ -1897,8 +1917,8 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,29 +1926,19 @@
         <v>35002</v>
       </c>
       <c r="J9" s="1">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:10">
+    <row r="10" s="1" customFormat="1" spans="1:13">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -1937,13 +1947,15 @@
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:14">
       <c r="A11" s="2">
@@ -1952,7 +1964,7 @@
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
       <c r="D11" s="2">
@@ -1961,7 +1973,7 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -1976,10 +1988,10 @@
       <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="11">
         <v>4</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="11">
         <v>2</v>
       </c>
       <c r="N11" s="2">
@@ -1993,7 +2005,7 @@
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2005,7 +2017,7 @@
       <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
@@ -2018,10 +2030,10 @@
       <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="11">
         <v>4</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="11">
         <v>2</v>
       </c>
       <c r="N12" s="2">
@@ -2035,7 +2047,7 @@
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>2</v>
       </c>
       <c r="D13" s="2">
@@ -2044,7 +2056,7 @@
       <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="2" t="s">
         <v>45</v>
       </c>
@@ -2057,10 +2069,10 @@
       <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="11">
         <v>4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="11">
         <v>2</v>
       </c>
       <c r="N13" s="2">
@@ -2074,7 +2086,7 @@
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
       <c r="D14" s="2">
@@ -2083,7 +2095,7 @@
       <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -2098,17 +2110,17 @@
       <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="11">
         <v>4</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="11">
         <v>2</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:10">
+    <row r="15" s="1" customFormat="1" spans="1:13">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
@@ -2124,13 +2136,15 @@
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:14">
       <c r="A16">
@@ -2158,8 +2172,8 @@
         <v>0</v>
       </c>
       <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="N16">
         <v>1</v>
       </c>
@@ -2190,8 +2204,8 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="N17"/>
     </row>
     <row r="18" spans="1:14">
@@ -2201,7 +2215,7 @@
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2211,19 +2225,19 @@
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="1"/>
     </row>
   </sheetData>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6570"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,10 +534,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -569,9 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,17 +579,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,7 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,30 +615,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -653,9 +646,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,6 +669,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -676,16 +684,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +693,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,193 +714,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,26 +928,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,24 +968,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -993,6 +979,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,6 +1012,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1019,10 +1031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,10 +1043,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,125 +1055,125 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,6 +1183,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1186,16 +1201,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,8 +1578,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="L$1:L$1048576 M$1:M$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1560,12 +1590,12 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="73.75" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
     <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="13" width="9" style="4"/>
+    <col min="12" max="13" width="9" style="5"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1588,7 +1618,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1603,10 +1633,10 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1620,17 +1650,17 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1643,10 +1673,10 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="14">
         <v>4</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="14">
         <v>2</v>
       </c>
       <c r="N2" s="1">
@@ -1669,8 +1699,8 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1683,10 +1713,10 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="14">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="14">
         <v>0.4</v>
       </c>
       <c r="N3" s="1">
@@ -1700,7 +1730,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -1712,6 +1742,7 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
+      <c r="G4" s="4"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
@@ -1724,10 +1755,10 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>4</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>2</v>
       </c>
       <c r="N4">
@@ -1741,7 +1772,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1753,7 +1784,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1766,10 +1797,10 @@
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="14">
         <v>4</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="14">
         <v>2</v>
       </c>
       <c r="N5" s="1">
@@ -1783,7 +1814,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1795,7 +1826,7 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1808,57 +1839,57 @@
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="14">
         <v>4</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="14">
         <v>2</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:14">
-      <c r="A7" s="2">
+    <row r="7" s="1" customFormat="1" spans="1:14">
+      <c r="A7" s="1">
         <v>100006</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>30001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>35006</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="14">
+        <v>4</v>
+      </c>
+      <c r="M7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="2">
-        <v>35006</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="11">
-        <v>4</v>
-      </c>
-      <c r="M7" s="11">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1869,7 +1900,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1878,7 +1909,7 @@
       <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1891,45 +1922,45 @@
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="14">
         <v>4</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="14">
         <v>2</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
-      <c r="A9" s="1">
+    <row r="9" s="2" customFormat="1" spans="1:13">
+      <c r="A9" s="2">
         <v>100008</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>10001</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>35002</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:13">
       <c r="A10" s="1">
@@ -1938,7 +1969,7 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -1947,176 +1978,178 @@
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:14">
-      <c r="A11" s="2">
+    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="A11" s="1">
         <v>100010</v>
       </c>
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="1">
+        <v>30002</v>
+      </c>
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>35001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="14">
         <v>4</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="14">
         <v>2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:14">
-      <c r="A12" s="2">
+    <row r="12" s="1" customFormat="1" spans="1:14">
+      <c r="A12" s="1">
         <v>100011</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>35001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="14">
         <v>4</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="14">
         <v>2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:14">
-      <c r="A13" s="2">
+    <row r="13" s="1" customFormat="1" spans="1:14">
+      <c r="A13" s="1">
         <v>100012</v>
       </c>
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="1">
+        <v>30003</v>
+      </c>
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>35001</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="14">
         <v>4</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="14">
         <v>2</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:14">
-      <c r="A14" s="2">
+    <row r="14" s="3" customFormat="1" spans="1:14">
+      <c r="A14" s="3">
         <v>100013</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>35001</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="16">
         <v>4</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="16">
         <v>2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2136,15 +2169,15 @@
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:14">
       <c r="A16">
@@ -2163,7 +2196,7 @@
       <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="4"/>
       <c r="H16" t="s">
         <v>52</v>
       </c>
@@ -2172,41 +2205,43 @@
         <v>0</v>
       </c>
       <c r="K16"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:14">
+    <row r="17" s="2" customFormat="1" spans="1:14">
       <c r="A17" s="2">
         <v>200003</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="12">
         <v>10003</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="12">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>0.1</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>3</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2215,7 +2250,7 @@
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2227,7 +2262,7 @@
       <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2236,8 +2271,8 @@
         <v>0</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="1"/>
     </row>
   </sheetData>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,8 @@
 2 为圆
 3 为矩形
 4 单体准星
-5 为前置技能的目标</t>
+5 为前置技能的目标
+6 为角色自身</t>
         </r>
       </text>
     </comment>
@@ -436,7 +437,7 @@
     <t>4,6</t>
   </si>
   <si>
-    <t>对面前目标造成4次伤害，每次造成"n"点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
+    <t>对范围内目标造成4次伤害，每次造成"n"点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
   </si>
   <si>
     <t>0.5,</t>
@@ -445,7 +446,7 @@
     <t>5,</t>
   </si>
   <si>
-    <t>对面前目标造成5次伤害，每次造成"n"点伤害</t>
+    <t>对范围内目标造成5次伤害，每次造成"n"点伤害</t>
   </si>
   <si>
     <t>10,</t>
@@ -534,15 +535,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -556,22 +563,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,75 +578,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,21 +587,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,6 +607,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,8 +667,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,19 +721,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,181 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,58 +927,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -998,17 +957,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,6 +1009,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1031,10 +1032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,137 +1044,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,13 +1184,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1198,34 +1199,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1588,7 +1577,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="73.75" customWidth="1"/>
+    <col min="5" max="5" width="48.475" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="24.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
@@ -1673,10 +1662,10 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="12">
         <v>4</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="12">
         <v>2</v>
       </c>
       <c r="N2" s="1">
@@ -1708,60 +1697,60 @@
         <v>35002</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="12">
         <v>1</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <v>0.4</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
+    <row r="4" s="2" customFormat="1" spans="1:14">
+      <c r="A4" s="2">
         <v>100003</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>35001</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="13">
         <v>4</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="13">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1797,10 +1786,10 @@
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="12">
         <v>4</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>2</v>
       </c>
       <c r="N5" s="1">
@@ -1839,10 +1828,10 @@
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <v>4</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <v>2</v>
       </c>
       <c r="N6" s="1">
@@ -1883,10 +1872,10 @@
       <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <v>4</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>2</v>
       </c>
       <c r="N7" s="1">
@@ -1922,17 +1911,17 @@
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="12">
         <v>4</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>2</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:13">
+    <row r="9" s="2" customFormat="1" spans="1:14">
       <c r="A9" s="2">
         <v>100008</v>
       </c>
@@ -1957,10 +1946,13 @@
         <v>35002</v>
       </c>
       <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:13">
       <c r="A10" s="1">
@@ -1985,8 +1977,8 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1">
@@ -2019,10 +2011,10 @@
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <v>4</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>2</v>
       </c>
       <c r="N11" s="1">
@@ -2061,10 +2053,10 @@
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="12">
         <v>4</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="12">
         <v>2</v>
       </c>
       <c r="N12" s="1">
@@ -2102,54 +2094,54 @@
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <v>4</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <v>2</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:14">
-      <c r="A14" s="3">
+    <row r="14" s="2" customFormat="1" spans="1:14">
+      <c r="A14" s="2">
         <v>100013</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>35001</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="13">
         <v>4</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="13">
         <v>2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2176,72 +2168,69 @@
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:14">
-      <c r="A16">
+    <row r="16" s="3" customFormat="1" spans="1:14">
+      <c r="A16" s="3">
         <v>200002</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>10002</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I16"/>
-      <c r="J16">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16">
+      <c r="K16" s="3"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:14">
+    <row r="17" s="2" customFormat="1" spans="1:13">
       <c r="A17" s="2">
         <v>200003</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="2">
         <v>10003</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="2">
         <v>0.1</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="2">
         <v>3</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="12"/>
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2271,9 +2260,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="1"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N18">

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
     <t>0.3,0.1</t>
   </si>
   <si>
-    <t>("2,102"-"2,103")*a1+"5,200001,10001"*"1,100"*a2</t>
+    <t>("2,102"-"2,1")*a1+"5,200001,10001"*"1,100"*a2</t>
   </si>
   <si>
     <t>对目标造成（已损失血量*30%的伤害），并引爆所有易伤效果，每层易伤效果造成攻击力*10%点的真实伤害</t>
@@ -535,10 +535,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -570,7 +570,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,17 +670,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,69 +690,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,31 +705,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,19 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,181 +727,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,21 +912,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -962,24 +935,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,6 +979,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1032,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,147 +1032,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1193,28 +1184,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1579,12 +1573,12 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="48.475" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="5" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
     <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="13" width="9" style="5"/>
+    <col min="12" max="13" width="9" style="6"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1607,7 +1601,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1622,10 +1616,10 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1639,17 +1633,17 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1662,10 +1656,10 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="14">
         <v>4</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="14">
         <v>2</v>
       </c>
       <c r="N2" s="1">
@@ -1688,8 +1682,8 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,55 +1696,55 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="14">
         <v>1</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="14">
         <v>0.4</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:14">
-      <c r="A4" s="2">
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="1">
         <v>100003</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2">
-        <v>35001</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="1">
+        <v>35003</v>
+      </c>
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="13">
-        <v>4</v>
-      </c>
-      <c r="M4" s="13">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="L4" s="14">
+        <v>4.15</v>
+      </c>
+      <c r="M4" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="N4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1761,7 +1755,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1773,7 +1767,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1786,11 +1780,11 @@
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="12">
-        <v>4</v>
-      </c>
-      <c r="M5" s="12">
-        <v>2</v>
+      <c r="L5" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -1803,7 +1797,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1815,7 +1809,7 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1828,129 +1822,129 @@
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="12">
-        <v>4</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="L6" s="14">
         <v>2</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.8</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:14">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" spans="1:14">
+      <c r="A7" s="2">
         <v>100006</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>30001</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>35006</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="12">
-        <v>4</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="L7" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:14">
+      <c r="A8" s="3">
+        <v>100007</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3">
+        <v>35007</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="M8" s="15">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:14">
-      <c r="A8" s="1">
-        <v>100007</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" s="1" customFormat="1" spans="1:14">
+      <c r="A9" s="1">
+        <v>100008</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="1">
-        <v>35007</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="12">
-        <v>4</v>
-      </c>
-      <c r="M8" s="12">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:14">
-      <c r="A9" s="2">
-        <v>100008</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>35002</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="2">
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1961,7 +1955,7 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -1970,15 +1964,15 @@
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1">
@@ -1987,7 +1981,7 @@
       <c r="B11" s="1">
         <v>30002</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="1">
@@ -1996,14 +1990,14 @@
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="1">
-        <v>35001</v>
+        <v>35008</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -2011,11 +2005,11 @@
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12">
-        <v>4</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="L11" s="14">
         <v>2</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.25</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -2028,7 +2022,7 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2040,12 +2034,12 @@
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="1">
-        <v>35001</v>
+        <v>35009</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -2053,10 +2047,10 @@
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="12">
-        <v>4</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="L12" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="M12" s="14">
         <v>2</v>
       </c>
       <c r="N12" s="1">
@@ -2070,7 +2064,7 @@
       <c r="B13" s="1">
         <v>30003</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
       <c r="D13" s="1">
@@ -2079,14 +2073,14 @@
       <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="1">
-        <v>35001</v>
+        <v>35010</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -2094,54 +2088,54 @@
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="12">
-        <v>4</v>
-      </c>
-      <c r="M13" s="12">
-        <v>2</v>
+      <c r="L13" s="14">
+        <v>0.52</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.117</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:14">
-      <c r="A14" s="2">
+    <row r="14" s="1" customFormat="1" spans="1:14">
+      <c r="A14" s="1">
         <v>100013</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="2">
-        <v>35001</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="1">
+        <v>35011</v>
+      </c>
+      <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="13">
-        <v>4</v>
-      </c>
-      <c r="M14" s="13">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="L14" s="14">
+        <v>1.77</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2161,85 +2155,80 @@
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:14">
-      <c r="A16" s="3">
+    <row r="16" s="4" customFormat="1" spans="1:14">
+      <c r="A16" s="4">
         <v>200002</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>10002</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="3">
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="N16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:13">
-      <c r="A17" s="2">
+    <row r="17" s="1" customFormat="1" spans="1:13">
+      <c r="A17" s="1">
         <v>200003</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>10003</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" s="1" customFormat="1" spans="1:13">
       <c r="A18" s="1">
         <v>300001</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2251,18 +2240,15 @@
       <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="24" spans="6:6">
       <c r="F24">

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -536,9 +536,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -562,8 +562,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,8 +607,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,56 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,8 +653,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -677,14 +685,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,14 +705,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -721,55 +721,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,127 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +912,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -932,8 +956,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -950,32 +976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,7 +999,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,137 +1032,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,10 +1172,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1196,19 +1193,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1573,12 +1564,12 @@
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="48.475" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
     <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="13" width="9" style="6"/>
+    <col min="12" max="13" width="9" style="5"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1601,7 +1592,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1616,10 +1607,10 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1633,17 +1624,17 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1656,10 +1647,10 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="11">
         <v>4</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="11">
         <v>2</v>
       </c>
       <c r="N2" s="1">
@@ -1682,8 +1673,8 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,10 +1687,10 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="11">
         <v>1</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="11">
         <v>0.4</v>
       </c>
       <c r="N3" s="1">
@@ -1713,7 +1704,7 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1725,7 +1716,7 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1738,10 +1729,10 @@
       <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="11">
         <v>4.15</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="11">
         <v>3.5</v>
       </c>
       <c r="N4" s="1">
@@ -1755,7 +1746,7 @@
       <c r="B5" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1767,7 +1758,7 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1780,10 +1771,10 @@
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <v>2.5</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="11">
         <v>3</v>
       </c>
       <c r="N5" s="1">
@@ -1797,7 +1788,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1809,7 +1800,7 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1822,10 +1813,10 @@
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="11">
         <v>2</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="11">
         <v>0.8</v>
       </c>
       <c r="N6" s="1">
@@ -1839,7 +1830,7 @@
       <c r="B7" s="2">
         <v>30001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1851,7 +1842,7 @@
       <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1876,42 +1867,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:14">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="A8" s="1">
         <v>100007</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>35007</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="11">
         <v>4.5</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="11">
         <v>2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1931,8 +1922,8 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1942,8 +1933,8 @@
       <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1">
         <v>0</v>
       </c>
@@ -1955,7 +1946,7 @@
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -1964,15 +1955,15 @@
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1">
@@ -1981,7 +1972,7 @@
       <c r="B11" s="1">
         <v>30002</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
       <c r="D11" s="1">
@@ -1990,7 +1981,7 @@
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2005,10 +1996,10 @@
       <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="11">
         <v>2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="11">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
@@ -2022,7 +2013,7 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2034,7 +2025,7 @@
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2047,10 +2038,10 @@
       <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="11">
         <v>3.3</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="11">
         <v>2</v>
       </c>
       <c r="N12" s="1">
@@ -2064,7 +2055,7 @@
       <c r="B13" s="1">
         <v>30003</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="1">
@@ -2073,7 +2064,7 @@
       <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2088,10 +2079,10 @@
       <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="11">
         <v>0.52</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="11">
         <v>0.117</v>
       </c>
       <c r="N13" s="1">
@@ -2105,7 +2096,7 @@
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>2</v>
       </c>
       <c r="D14" s="1">
@@ -2114,7 +2105,7 @@
       <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2129,10 +2120,10 @@
       <c r="K14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="11">
         <v>1.77</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="11">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
@@ -2155,40 +2146,45 @@
       <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
-    <row r="16" s="4" customFormat="1" spans="1:14">
-      <c r="A16" s="4">
+    <row r="16" s="3" customFormat="1" spans="1:14">
+      <c r="A16" s="3">
         <v>200002</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10002</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="4">
+      <c r="I16" s="3">
+        <v>35013</v>
+      </c>
+      <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="N16" s="4">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2211,15 +2207,15 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:13">
       <c r="A18" s="1">
@@ -2228,7 +2224,7 @@
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2240,15 +2236,15 @@
       <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="24" spans="6:6">
       <c r="F24">

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,29 +562,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -592,16 +569,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,17 +599,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,9 +615,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,6 +660,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -675,36 +705,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -721,187 +721,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,30 +912,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -965,17 +941,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,11 +974,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,8 +1007,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,133 +1032,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:M16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1694,7 +1694,7 @@
         <v>0.4</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:14">
@@ -1936,10 +1936,10 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:13">
+    <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -1964,6 +1964,9 @@
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1">
@@ -2130,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
+    <row r="15" s="1" customFormat="1" spans="1:14">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
@@ -2155,6 +2158,9 @@
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:14">
       <c r="A16" s="3">

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <t>"1,100"*a1+a2+a3</t>
   </si>
   <si>
-    <t>火柱伤害技能，造成"n"点伤害</t>
+    <t>火柱伤害技能，造成&amp;n点伤害</t>
   </si>
   <si>
     <t>shape_1</t>
@@ -422,7 +422,7 @@
     <t>"1,102"*a1</t>
   </si>
   <si>
-    <t>治疗技能，造成"n"点恢复</t>
+    <t>治疗技能，造成&amp;n点恢复</t>
   </si>
   <si>
     <t>shape_2</t>
@@ -437,7 +437,7 @@
     <t>4,6</t>
   </si>
   <si>
-    <t>对范围内目标造成4次伤害，每次造成"n"点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
+    <t>对范围内目标造成4次伤害，每次造成&amp;n点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
   </si>
   <si>
     <t>0.5,</t>
@@ -446,7 +446,7 @@
     <t>5,</t>
   </si>
   <si>
-    <t>对范围内目标造成5次伤害，每次造成"n"点伤害</t>
+    <t>对范围内目标造成5次伤害，每次造成&amp;n点伤害</t>
   </si>
   <si>
     <t>10,</t>
@@ -467,7 +467,7 @@
     <t>200001,</t>
   </si>
   <si>
-    <t>对范围目标造成"n"的伤害，并附加1层易伤效果</t>
+    <t>对范围目标造成&amp;n的伤害，并附加1层易伤效果</t>
   </si>
   <si>
     <t>0.3,0.1</t>
@@ -535,10 +535,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -562,15 +562,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,41 +585,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,38 +601,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,7 +632,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,13 +683,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -721,37 +721,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,145 +889,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +912,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -932,17 +941,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -955,21 +953,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,11 +987,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,145 +1020,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -562,14 +562,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -579,14 +571,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,7 +594,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,90 +700,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,19 +721,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,37 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,109 +883,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +912,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -941,8 +956,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -951,22 +968,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -987,28 +1004,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,19 +1032,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,112 +1053,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30615" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -562,6 +562,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -569,9 +584,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,44 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -630,16 +607,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,9 +630,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,16 +668,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,14 +705,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -721,6 +721,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -733,175 +865,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +912,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -939,21 +993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -961,45 +1000,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,133 +1032,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1688,10 +1688,10 @@
         <v>21</v>
       </c>
       <c r="L3" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -535,10 +535,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -562,9 +562,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,9 +583,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,10 +636,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,15 +684,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,67 +699,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -721,49 +721,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,127 +889,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +912,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -926,6 +952,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,66 +1008,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,145 +1020,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\配置表1111\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB042F2-F8EE-4AF7-B472-7B941F6086A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30615" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,23 +20,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -39,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,13 +67,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -74,6 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -84,13 +94,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -99,6 +110,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,13 +118,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -121,6 +134,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -146,13 +160,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -161,6 +176,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -168,13 +184,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -183,6 +200,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -190,13 +208,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -205,6 +224,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -212,13 +232,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -227,6 +248,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -235,13 +257,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -250,6 +273,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -263,13 +287,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -278,6 +303,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -286,13 +312,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -301,6 +328,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -308,13 +336,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -323,6 +352,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -330,13 +360,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -345,6 +376,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -360,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -404,15 +436,6 @@
     <t>point_type</t>
   </si>
   <si>
-    <t>2,100,100</t>
-  </si>
-  <si>
-    <t>"1,100"*a1+a2+a3</t>
-  </si>
-  <si>
-    <t>火柱伤害技能，造成&amp;n点伤害</t>
-  </si>
-  <si>
     <t>shape_1</t>
   </si>
   <si>
@@ -422,63 +445,24 @@
     <t>"1,102"*a1</t>
   </si>
   <si>
-    <t>治疗技能，造成&amp;n点恢复</t>
-  </si>
-  <si>
     <t>shape_2</t>
   </si>
   <si>
-    <t>0.6,</t>
-  </si>
-  <si>
     <t>"1,100"*a1</t>
   </si>
   <si>
     <t>4,6</t>
   </si>
   <si>
-    <t>对范围内目标造成4次伤害，每次造成&amp;n点伤害如果目标处于晕眩状态，额外造成2次伤害</t>
-  </si>
-  <si>
-    <t>0.5,</t>
-  </si>
-  <si>
     <t>5,</t>
   </si>
   <si>
-    <t>对范围内目标造成5次伤害，每次造成&amp;n点伤害</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>对范围内目标造成5次，每次10点真实伤害</t>
-  </si>
-  <si>
-    <t>0.3,</t>
-  </si>
-  <si>
     <t>1,</t>
   </si>
   <si>
     <t>200001,</t>
   </si>
   <si>
-    <t>对范围目标造成&amp;n的伤害，并附加1层易伤效果</t>
-  </si>
-  <si>
-    <t>0.3,0.1</t>
-  </si>
-  <si>
-    <t>("2,102"-"2,1")*a1+"5,200001,10001"*"1,100"*a2</t>
-  </si>
-  <si>
-    <t>对目标造成（已损失血量*30%的伤害），并引爆所有易伤效果，每层易伤效果造成攻击力*10%点的真实伤害</t>
-  </si>
-  <si>
     <t>2,</t>
   </si>
   <si>
@@ -488,27 +472,15 @@
     <t>3,4</t>
   </si>
   <si>
-    <t>对范围目标施加3层易伤效果，如果目标生命值不为满状态，额外施加一层易伤效果</t>
-  </si>
-  <si>
     <t>1.5,</t>
   </si>
   <si>
-    <t>对目标造成(150%攻击力的伤害），如果这个技能杀死目标，回复自身等同于伤害值的生命</t>
-  </si>
-  <si>
-    <t>目标范围内的所有敌方的易伤层数翻倍</t>
-  </si>
-  <si>
     <t>2,3,3</t>
   </si>
   <si>
     <t>200002,200001</t>
   </si>
   <si>
-    <t>晕眩目标范围内的敌人2到3秒，并附加3层易伤效果</t>
-  </si>
-  <si>
     <t>"3,10001"*a1</t>
   </si>
   <si>
@@ -521,26 +493,412 @@
     <t>眩晕：无法移动、无法攻击和无法施法</t>
   </si>
   <si>
-    <t>接下来的每一次伤害都会治疗自己，治疗效果为自身攻击力*10%，这个效果持续3秒</t>
-  </si>
-  <si>
     <t>5,20</t>
   </si>
   <si>
-    <t>消耗20%最大生命值，获取5个水晶</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1,100"*a1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1,100"*a1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"1,100"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-"2,101"</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1,100"*a1-"2,101"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>("2,102"-"2,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")*a1+"5,200001,10001"*"1,100"*a2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0.1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内目标:5次&amp;n点伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,100"*a1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内目标:5次&amp;n点伤害,无视防御</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内目标:&amp;n点伤害，易伤+1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内目标:&amp;n点伤害</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身：恢复&amp;n点生命值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>范围内目标:损失血量*50%伤害,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引爆易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每层易伤造成攻击力*10%点真实伤害</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>范围内目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，若目标生命值不为满，易伤额外+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内目标：&amp;n点伤害,若杀死目标,恢复&amp;n点生命值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身：恢复攻击力&amp;n点生命值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>范围内目标：当前易伤层数*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>范围内目标：晕眩2或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3秒，易伤+3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>范围内目标:4次&amp;n点伤害,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目标眩晕中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>额外造成2次伤害</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身：每次造成伤害将恢复自身攻击力*10%的生命值,效果持续15秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身：消耗20%最大生命值，获取5个水晶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +909,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -558,155 +917,40 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,194 +963,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -914,255 +972,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,62 +1018,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1306,7 +1084,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1339,9 +1117,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,6 +1169,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1544,25 +1356,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="48.475" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="24.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="82" customWidth="1"/>
@@ -1573,7 +1385,7 @@
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
@@ -1627,16 +1439,16 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
+      <c r="D2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
+      <c r="H2" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>35001</v>
@@ -1645,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L2" s="11">
         <v>4</v>
@@ -1657,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
@@ -1667,16 +1479,16 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
+      <c r="H3" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="I3" s="1">
         <v>35002</v>
@@ -1685,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" s="11">
         <v>0.5</v>
@@ -1697,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
@@ -1707,18 +1519,18 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
+      <c r="D4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
+      <c r="H4" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I4" s="1">
         <v>35003</v>
@@ -1727,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L4" s="11">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M4" s="11">
         <v>3.5</v>
@@ -1739,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
@@ -1749,18 +1561,18 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
+      <c r="D5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
+      <c r="H5" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="I5" s="1">
         <v>35004</v>
@@ -1769,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L5" s="11">
         <v>2.5</v>
@@ -1781,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:14">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -1791,18 +1603,18 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
+      <c r="D6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
+      <c r="H6" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="I6" s="1">
         <v>35005</v>
@@ -1811,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" s="11">
         <v>2</v>
@@ -1823,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:14">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>100006</v>
       </c>
@@ -1834,19 +1646,19 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2">
         <v>35006</v>
@@ -1855,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L7" s="2">
         <v>1.6</v>
@@ -1867,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:14">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>100007</v>
       </c>
@@ -1877,15 +1689,15 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
+      <c r="D8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
+      <c r="H8" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="I8" s="1">
         <v>35007</v>
@@ -1894,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L8" s="11">
         <v>4.5</v>
@@ -1906,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:14">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
@@ -1917,15 +1729,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
+      <c r="H9" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="I9" s="1">
         <v>35002</v>
@@ -1939,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:14">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -1953,11 +1765,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1968,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:14">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>100010</v>
       </c>
@@ -1982,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="I11" s="1">
         <v>35008</v>
@@ -1997,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L11" s="11">
         <v>2</v>
@@ -2009,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:14">
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>100011</v>
       </c>
@@ -2020,17 +1832,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
+      <c r="H12" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="I12" s="1">
         <v>35009</v>
@@ -2039,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L12" s="11">
         <v>3.3</v>
@@ -2051,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:14">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>100012</v>
       </c>
@@ -2065,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="I13" s="1">
         <v>35010</v>
@@ -2080,19 +1892,19 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L13" s="11">
         <v>0.52</v>
       </c>
       <c r="M13" s="11">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:14">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>100013</v>
       </c>
@@ -2106,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="1">
         <v>35011</v>
@@ -2121,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L14" s="11">
         <v>1.77</v>
@@ -2133,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
@@ -2144,14 +1956,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -2162,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:14">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>200002</v>
       </c>
@@ -2176,11 +1988,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I16" s="3">
         <v>35013</v>
@@ -2194,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>200003</v>
       </c>
@@ -2208,14 +2020,14 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
+      <c r="H17" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="J17" s="1">
         <v>6</v>
@@ -2223,7 +2035,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>300001</v>
       </c>
@@ -2234,17 +2046,17 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="1" t="s">
-        <v>55</v>
+      <c r="H18" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2252,54 +2064,39 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="24" spans="6:6">
-      <c r="F24">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N18">
-    <sortState ref="A1:N18">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:N18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\配置表1111\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB042F2-F8EE-4AF7-B472-7B941F6086A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30615" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +14,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -46,7 +39,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,14 +59,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -83,7 +74,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -94,14 +84,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -110,7 +99,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -118,14 +106,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -134,7 +121,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,14 +146,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -176,7 +161,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -184,14 +168,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -200,7 +183,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -208,14 +190,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -224,7 +205,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -232,14 +212,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -248,7 +227,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -257,14 +235,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -273,7 +250,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -287,14 +263,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -303,7 +278,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -312,14 +286,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -328,7 +301,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -336,14 +308,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -352,7 +323,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -360,14 +330,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -376,7 +345,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -392,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>id</t>
   </si>
@@ -436,34 +404,286 @@
     <t>point_type</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"1,100"*a1</t>
+  </si>
+  <si>
+    <t>范围内目标:&amp;n点伤害</t>
+  </si>
+  <si>
     <t>shape_1</t>
   </si>
   <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>自身：恢复攻击力&amp;n点生命值</t>
+  </si>
+  <si>
+    <t>shape_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1,100"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-"2,101"</t>
+    </r>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>范围内目标:4次40%攻击力伤害,目标眩晕中,额外造成2次伤害</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"1,100"*a1-"2,101"</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>范围内目标:5次80%攻击力伤害</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1,100"*a1</t>
+    </r>
+  </si>
+  <si>
+    <t>范围内目标:5次&amp;n点伤害,无视防御</t>
+  </si>
+  <si>
+    <t>1.5,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>200001,</t>
+  </si>
+  <si>
+    <t>范围内目标:&amp;n点伤害，易伤+1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,0.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>("2,102"-"2,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>")*a1+"5,200001,10001"*"1,100"*a2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围内目标:损失血量*50%伤害,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引爆易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每层易伤造成攻击力*10%点真实伤害</t>
+    </r>
+  </si>
+  <si>
     <t>0.2,</t>
   </si>
   <si>
     <t>"1,102"*a1</t>
   </si>
   <si>
-    <t>shape_2</t>
-  </si>
-  <si>
-    <t>"1,100"*a1</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>200001,</t>
-  </si>
-  <si>
-    <t>2,</t>
+    <t>自身：恢复&amp;n点生命值</t>
   </si>
   <si>
     <t>抽两张牌</t>
@@ -472,7 +692,83 @@
     <t>3,4</t>
   </si>
   <si>
-    <t>1.5,</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围内目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，若目标生命值不为满，易伤额外+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>范围内目标：&amp;n点伤害,若杀死目标,恢复&amp;n点生命值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围内目标：当前易伤层数*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <t>2,3,3</t>
@@ -481,6 +777,26 @@
     <t>200002,200001</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围内目标：晕眩2或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3秒，易伤+3</t>
+    </r>
+  </si>
+  <si>
     <t>"3,10001"*a1</t>
   </si>
   <si>
@@ -493,412 +809,26 @@
     <t>眩晕：无法移动、无法攻击和无法施法</t>
   </si>
   <si>
+    <t>自身：每次造成伤害将恢复自身攻击力*10%的生命值,效果持续15秒</t>
+  </si>
+  <si>
     <t>5,20</t>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1,100"*a1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1,100"*a1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"1,100"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-"2,101"</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1,100"*a1-"2,101"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>("2,102"-"2,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>")*a1+"5,200001,10001"*"1,100"*a2</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0.1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:5次&amp;n点伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,100"*a1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.5,</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:5次&amp;n点伤害,无视防御</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:&amp;n点伤害，易伤+1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:&amp;n点伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身：恢复&amp;n点生命值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>范围内目标:损失血量*50%伤害,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>引爆易伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每层易伤造成攻击力*10%点真实伤害</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>范围内目标</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>易伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，若目标生命值不为满，易伤额外+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标：&amp;n点伤害,若杀死目标,恢复&amp;n点生命值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身：恢复攻击力&amp;n点生命值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>范围内目标：当前易伤层数*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>范围内目标：晕眩2或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3秒，易伤+3</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>范围内目标:4次&amp;n点伤害,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>目标眩晕中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>额外造成2次伤害</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身：每次造成伤害将恢复自身攻击力*10%的生命值,效果持续15秒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>自身：消耗20%最大生命值，获取5个水晶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,7 +839,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -917,7 +846,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -925,32 +853,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,8 +1014,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -972,9 +1209,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,6 +1479,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1018,24 +1503,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1084,7 +1607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1117,26 +1640,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1169,23 +1675,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1356,19 +1845,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1385,7 +1874,7 @@
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
@@ -1439,16 +1928,16 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="14" t="s">
-        <v>50</v>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>35001</v>
@@ -1457,19 +1946,19 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="11">
+        <v>17</v>
+      </c>
+      <c r="L2" s="13">
         <v>4</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="13">
         <v>2</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
@@ -1479,16 +1968,16 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="14" t="s">
-        <v>55</v>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>35002</v>
@@ -1497,19 +1986,19 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="11">
+        <v>20</v>
+      </c>
+      <c r="L3" s="13">
         <v>0.5</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="13">
         <v>0.5</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
@@ -1519,18 +2008,18 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>40</v>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>35003</v>
@@ -1539,19 +2028,19 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="11">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="M4" s="11">
+        <v>17</v>
+      </c>
+      <c r="L4" s="13">
+        <v>4.15</v>
+      </c>
+      <c r="M4" s="13">
         <v>3.5</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" spans="1:14">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
@@ -1561,18 +2050,18 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>41</v>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="14" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>35004</v>
@@ -1581,19 +2070,19 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="11">
+        <v>17</v>
+      </c>
+      <c r="L5" s="13">
         <v>2.5</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="13">
         <v>3</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="1:14">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -1603,18 +2092,18 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="14" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="1">
         <v>35005</v>
@@ -1623,42 +2112,42 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="11">
+        <v>17</v>
+      </c>
+      <c r="L6" s="13">
         <v>2</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="13">
         <v>0.8</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" spans="1:14">
       <c r="A7" s="2">
         <v>100006</v>
       </c>
       <c r="B7" s="2">
         <v>30001</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
         <v>35006</v>
@@ -1667,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2">
         <v>1.6</v>
@@ -1679,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" spans="1:14">
       <c r="A8" s="1">
         <v>100007</v>
       </c>
@@ -1689,15 +2178,15 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="14" t="s">
-        <v>52</v>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="I8" s="1">
         <v>35007</v>
@@ -1706,19 +2195,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="11">
+        <v>17</v>
+      </c>
+      <c r="L8" s="13">
         <v>4.5</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="13">
         <v>2</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" spans="1:14">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
@@ -1729,15 +2218,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="I9" s="1">
         <v>35002</v>
@@ -1745,13 +2234,13 @@
       <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -1765,22 +2254,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1">
         <v>100010</v>
       </c>
@@ -1794,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="I11" s="1">
         <v>35008</v>
@@ -1809,19 +2298,19 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="11">
+        <v>17</v>
+      </c>
+      <c r="L11" s="13">
         <v>2</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="13">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="1">
         <v>100011</v>
       </c>
@@ -1832,17 +2321,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="14" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I12" s="1">
         <v>35009</v>
@@ -1851,19 +2340,19 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="11">
+        <v>17</v>
+      </c>
+      <c r="L12" s="13">
         <v>3.3</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="13">
         <v>2</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="1">
         <v>100012</v>
       </c>
@@ -1877,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I13" s="1">
         <v>35010</v>
@@ -1892,19 +2381,19 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="11">
+        <v>17</v>
+      </c>
+      <c r="L13" s="13">
         <v>0.52</v>
       </c>
-      <c r="M13" s="11">
-        <v>0.11700000000000001</v>
+      <c r="M13" s="13">
+        <v>0.117</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" spans="1:14">
       <c r="A14" s="1">
         <v>100013</v>
       </c>
@@ -1918,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="I14" s="1">
         <v>35011</v>
@@ -1933,19 +2422,19 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="11">
+        <v>17</v>
+      </c>
+      <c r="L14" s="13">
         <v>1.77</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="13">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" spans="1:14">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
@@ -1956,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="3" customFormat="1" spans="1:14">
       <c r="A16" s="3">
         <v>200002</v>
       </c>
@@ -1988,11 +2477,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="G16" s="12"/>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I16" s="3">
         <v>35013</v>
@@ -2000,13 +2489,13 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
       <c r="N16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" spans="1:13">
       <c r="A17" s="1">
         <v>200003</v>
       </c>
@@ -2020,22 +2509,22 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="14" t="s">
-        <v>59</v>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" spans="1:13">
       <c r="A18" s="1">
         <v>300001</v>
       </c>
@@ -2046,57 +2535,63 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:N18"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13215"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,34 +28,25 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>zsbin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-效果类型
+          <t>效果类型
 1=单次伤害
 2=单次治疗
 3=造成A1伤害，眩晕状态造成A2次数伤害
 4=生命值换水晶A1个
 5=额外发牌A1张
 6=造成A1次伤害
-7=造成A1效果，如果眩晕造成A2效果
 8=如果单位死亡，则恢复释放者造成伤害A1倍数生命
-9=造成目标范围内buff乘A1倍
 10=对目标范围造成buff1(A1,A2)+buff2(A3)
---------------------
-10001=每一次攻击造成额外伤害
-10002=眩晕</t>
+10001=无目标治疗角色
+10002=眩晕
+20001=平A附带真实伤害
+30001=如果血量不满buff1(A2)，否则buff1(A1)
+30002=造成伤害，buff1(A1)
+30003=造成目标范围内buff乘A1倍</t>
         </r>
       </text>
     </comment>
@@ -823,9 +814,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -850,22 +841,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,24 +864,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,14 +881,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,9 +902,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +925,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,15 +971,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,20 +985,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1016,187 +1006,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,39 +1202,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,6 +1230,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1276,19 +1247,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,6 +1267,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1315,10 +1305,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,133 +1317,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,10 +1469,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1853,8 +1843,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E74AEB-CE23-45A9-B7D2-AB884023EE97}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578F410-D7B7-4DFB-9E0E-73E98993A83A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,9 +561,6 @@
     <t>"1,102"*a1</t>
   </si>
   <si>
-    <t>自身：恢复&amp;n点生命值</t>
-  </si>
-  <si>
     <t>抽两张牌</t>
   </si>
   <si>
@@ -722,10 +719,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"1,100"*a1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"1,</t>
     </r>
@@ -745,6 +738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -757,18 +751,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:损失血量*50%伤害,引爆易伤,每层易伤造成攻击力*50%点真实伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>1,</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -778,6 +760,50 @@
   </si>
   <si>
     <t>0.5,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身：恢复30%的生命值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"1,10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*a1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内目标:损失血量*30%伤害,引爆易伤,每层易伤造成攻击力*20%点真实伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1227,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -1343,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -1383,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -1393,7 +1419,7 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1">
         <v>35003</v>
@@ -1425,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>22</v>
@@ -1435,7 +1461,7 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1">
         <v>35004</v>
@@ -1467,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
@@ -1553,14 +1579,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1">
         <v>35007</v>
@@ -1592,15 +1618,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1">
         <v>35002</v>
@@ -1632,7 +1658,7 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1657,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1">
         <v>35008</v>
@@ -1695,17 +1721,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1">
         <v>35009</v>
@@ -1746,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1">
         <v>35010</v>
@@ -1781,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="I14" s="1">
         <v>35011</v>
@@ -1822,11 +1848,11 @@
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
@@ -1851,11 +1877,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="3">
         <v>35013</v>
@@ -1890,7 +1916,7 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1">
         <v>6</v>
@@ -1915,11 +1941,11 @@
         <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>

--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1127\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B578F410-D7B7-4DFB-9E0E-73E98993A83A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30000" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +14,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>效果类型
@@ -58,14 +51,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -74,7 +66,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -85,14 +76,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -101,7 +91,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,14 +98,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -125,7 +113,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -151,14 +138,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -167,7 +153,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -175,14 +160,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -191,7 +175,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -199,14 +182,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -215,7 +197,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -223,14 +204,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -239,7 +219,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -248,14 +227,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -264,7 +242,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -278,14 +255,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -294,7 +270,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -303,14 +278,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -319,7 +293,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -327,14 +300,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -343,7 +315,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -351,14 +322,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -367,7 +337,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -383,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>id</t>
   </si>
@@ -427,6 +396,9 @@
     <t>point_type</t>
   </si>
   <si>
+    <t>2,</t>
+  </si>
+  <si>
     <t>"1,100"*a1</t>
   </si>
   <si>
@@ -436,13 +408,16 @@
     <t>shape_1</t>
   </si>
   <si>
-    <t>2,</t>
+    <t>2.5,</t>
   </si>
   <si>
     <t>自身：恢复攻击力&amp;n点生命值</t>
   </si>
   <si>
     <t>shape_2</t>
+  </si>
+  <si>
+    <t>0.5,</t>
   </si>
   <si>
     <r>
@@ -450,7 +425,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"1,100"</t>
@@ -460,7 +434,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*a1</t>
@@ -470,7 +443,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-"2,101"</t>
@@ -480,10 +452,22 @@
     <t>4,6</t>
   </si>
   <si>
+    <t>范围内目标:4次50%攻击力伤害,目标眩晕中,额外造成2次伤害</t>
+  </si>
+  <si>
+    <t>1.2,</t>
+  </si>
+  <si>
     <t>"1,100"*a1-"2,101"</t>
   </si>
   <si>
     <t>5,</t>
+  </si>
+  <si>
+    <t>范围内目标:5次120%攻击力伤害</t>
+  </si>
+  <si>
+    <t>1,</t>
   </si>
   <si>
     <r>
@@ -491,7 +475,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -501,7 +484,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1,100"*a1</t>
@@ -514,13 +496,13 @@
     <t>1.5,</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>200001,</t>
   </si>
   <si>
     <t>范围内目标:&amp;n点伤害，易伤+1</t>
+  </si>
+  <si>
+    <t>0.3,0.2</t>
   </si>
   <si>
     <r>
@@ -528,7 +510,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>("2,102"-"2,1</t>
@@ -538,7 +519,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>03</t>
@@ -548,23 +528,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>")*a1+"5,200001,10001"*"1,100"*a2</t>
     </r>
   </si>
   <si>
-    <t>0.2,</t>
-  </si>
-  <si>
-    <t>"1,102"*a1</t>
-  </si>
-  <si>
-    <t>抽两张牌</t>
-  </si>
-  <si>
-    <t>3,4</t>
+    <t>范围内目标:损失血量*30%伤害,引爆易伤,每层易伤造成攻击力*20%点真实伤害</t>
+  </si>
+  <si>
+    <t>0.3,</t>
   </si>
   <si>
     <r>
@@ -572,7 +545,44 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1,10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"*a1</t>
+    </r>
+  </si>
+  <si>
+    <t>自身：恢复30%的生命值</t>
+  </si>
+  <si>
+    <t>抽两张牌</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>范围内目标</t>
@@ -582,7 +592,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -592,7 +601,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>易伤</t>
@@ -602,7 +610,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>+3</t>
@@ -612,7 +619,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，若目标生命值不为满，易伤额外+</t>
@@ -622,14 +628,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
   </si>
   <si>
-    <t>范围内目标：&amp;n点伤害,若杀死目标,恢复&amp;n点生命值</t>
+    <t>3,</t>
   </si>
   <si>
     <r>
@@ -637,7 +642,38 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"*a1</t>
+    </r>
+  </si>
+  <si>
+    <t>范围内目标：&amp;n点伤害,若杀死目标,恢复&amp;n点生命值</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>范围内目标：当前易伤层数*</t>
@@ -647,7 +683,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -665,7 +700,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>范围内目标：晕眩2或</t>
@@ -675,7 +709,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3秒，易伤+3</t>
@@ -697,121 +730,29 @@
     <t>自身：每次造成伤害将恢复自身攻击力*10%的生命值,效果持续15秒</t>
   </si>
   <si>
+    <t>0.2,</t>
+  </si>
+  <si>
+    <t>"1,102"*a1</t>
+  </si>
+  <si>
     <t>5,20</t>
   </si>
   <si>
     <t>自身：消耗20%最大生命值，获取5个水晶</t>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:5次120%攻击力伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*a1</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:4次50%攻击力伤害,目标眩晕中,额外造成2次伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身：恢复30%的生命值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"1,10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"*a1</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内目标:损失血量*30%伤害,引爆易伤,每层易伤造成攻击力*20%点真实伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3,0.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,7 +763,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -830,7 +770,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -838,39 +777,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,8 +944,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -892,9 +1139,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -920,12 +1409,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -941,24 +1436,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1245,19 +1778,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1274,7 +1807,7 @@
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
@@ -1328,16 +1861,16 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>35001</v>
@@ -1346,19 +1879,19 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="12">
+        <v>17</v>
+      </c>
+      <c r="L2" s="14">
         <v>4</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="14">
         <v>2</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
@@ -1368,16 +1901,16 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>35002</v>
@@ -1386,19 +1919,19 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="12">
+        <v>20</v>
+      </c>
+      <c r="L3" s="14">
         <v>0.5</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="14">
         <v>0.5</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
@@ -1408,18 +1941,18 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="1">
         <v>35003</v>
@@ -1428,19 +1961,19 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="12">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="M4" s="12">
+        <v>17</v>
+      </c>
+      <c r="L4" s="14">
+        <v>4.15</v>
+      </c>
+      <c r="M4" s="14">
         <v>3.5</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" spans="1:14">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
@@ -1450,18 +1983,18 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>35004</v>
@@ -1470,19 +2003,19 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="12">
+        <v>17</v>
+      </c>
+      <c r="L5" s="14">
         <v>2.5</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="14">
         <v>3</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="1:14">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -1492,18 +2025,18 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="1">
         <v>35005</v>
@@ -1512,42 +2045,42 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="12">
+        <v>17</v>
+      </c>
+      <c r="L6" s="14">
         <v>2</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="14">
         <v>0.8</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" spans="1:14">
       <c r="A7" s="2">
         <v>100006</v>
       </c>
       <c r="B7" s="2">
         <v>30001</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
         <v>35006</v>
@@ -1556,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2">
         <v>1.6</v>
@@ -1568,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1">
         <v>100007</v>
       </c>
@@ -1578,15 +2111,15 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="15" t="s">
-        <v>60</v>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="I8" s="1">
         <v>35007</v>
@@ -1595,19 +2128,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="12">
+        <v>17</v>
+      </c>
+      <c r="L8" s="14">
         <v>4.5</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="14">
         <v>2</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" spans="1:14">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
@@ -1617,16 +2150,16 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
-        <v>57</v>
+      <c r="D9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I9" s="1">
         <v>35002</v>
@@ -1634,13 +2167,13 @@
       <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -1654,22 +2187,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1">
         <v>100010</v>
       </c>
@@ -1683,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="I11" s="1">
         <v>35008</v>
@@ -1698,19 +2231,19 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="12">
+        <v>17</v>
+      </c>
+      <c r="L11" s="14">
         <v>2</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="14">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="1">
         <v>100011</v>
       </c>
@@ -1720,18 +2253,18 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>52</v>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="I12" s="1">
         <v>35009</v>
@@ -1740,19 +2273,19 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="12">
+        <v>17</v>
+      </c>
+      <c r="L12" s="14">
         <v>3.3</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="14">
         <v>2</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="1">
         <v>100012</v>
       </c>
@@ -1766,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I13" s="1">
         <v>35010</v>
@@ -1781,19 +2314,19 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="12">
+        <v>17</v>
+      </c>
+      <c r="L13" s="14">
         <v>0.52</v>
       </c>
-      <c r="M13" s="12">
-        <v>0.11700000000000001</v>
+      <c r="M13" s="14">
+        <v>0.117</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" spans="1:14">
       <c r="A14" s="1">
         <v>100013</v>
       </c>
@@ -1807,13 +2340,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="I14" s="1">
         <v>35011</v>
@@ -1822,19 +2355,19 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="12">
+        <v>17</v>
+      </c>
+      <c r="L14" s="14">
         <v>1.77</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="14">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" spans="1:14">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
@@ -1845,25 +2378,25 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="3" customFormat="1" spans="1:14">
       <c r="A16" s="3">
         <v>200002</v>
       </c>
@@ -1877,11 +2410,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="G16" s="13"/>
       <c r="H16" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I16" s="3">
         <v>35013</v>
@@ -1889,13 +2422,13 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" spans="1:13">
       <c r="A17" s="1">
         <v>200003</v>
       </c>
@@ -1909,22 +2442,22 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7" t="s">
-        <v>45</v>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" spans="1:13">
       <c r="A18" s="1">
         <v>300001</v>
       </c>
@@ -1935,57 +2468,63 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A1:N18"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/other/配置表/j-技能配置表.xlsx
+++ b/other/配置表/j-技能配置表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\ourgame\配置表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF18D66-06CE-4AC2-885F-60A3780FBE02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,23 +20,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zsbin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>效果类型
@@ -51,13 +58,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -66,6 +74,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,13 +85,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -91,6 +101,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -98,13 +109,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -113,6 +125,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -138,13 +151,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -153,6 +167,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,13 +175,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -175,6 +191,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -182,13 +199,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -197,6 +215,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -204,13 +223,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -219,6 +239,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -227,13 +248,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -242,6 +264,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -255,13 +278,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -270,6 +294,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -278,13 +303,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -293,6 +319,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -300,13 +327,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -315,6 +343,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -322,13 +351,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zsbin:</t>
@@ -337,6 +367,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -352,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -396,28 +427,22 @@
     <t>point_type</t>
   </si>
   <si>
+    <t>"1,100"*a1</t>
+  </si>
+  <si>
+    <t>shape_1</t>
+  </si>
+  <si>
     <t>2,</t>
   </si>
   <si>
-    <t>"1,100"*a1</t>
-  </si>
-  <si>
-    <t>范围内目标:&amp;n点伤害</t>
-  </si>
-  <si>
-    <t>shape_1</t>
-  </si>
-  <si>
-    <t>2.5,</t>
-  </si>
-  <si>
-    <t>自身：恢复攻击力&amp;n点生命值</t>
-  </si>
-  <si>
     <t>shape_2</t>
   </si>
   <si>
-    <t>0.5,</t>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>5,</t>
   </si>
   <si>
     <r>
@@ -425,56 +450,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"1,100"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-"2,101"</t>
-    </r>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>范围内目标:4次50%攻击力伤害,目标眩晕中,额外造成2次伤害</t>
-  </si>
-  <si>
-    <t>1.2,</t>
-  </si>
-  <si>
-    <t>"1,100"*a1-"2,101"</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>范围内目标:5次120%攻击力伤害</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"</t>
@@ -484,25 +460,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1,100"*a1</t>
     </r>
   </si>
   <si>
-    <t>范围内目标:5次&amp;n点伤害,无视防御</t>
-  </si>
-  <si>
     <t>1.5,</t>
   </si>
   <si>
+    <t>1,</t>
+  </si>
+  <si>
     <t>200001,</t>
-  </si>
-  <si>
-    <t>范围内目标:&amp;n点伤害，易伤+1</t>
-  </si>
-  <si>
-    <t>0.3,0.2</t>
   </si>
   <si>
     <r>
@@ -510,6 +481,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>("2,102"-"2,1</t>
@@ -519,6 +491,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>03</t>
@@ -528,25 +501,81 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>")*a1+"5,200001,10001"*"1,100"*a2</t>
     </r>
   </si>
   <si>
-    <t>范围内目标:损失血量*30%伤害,引爆易伤,每层易伤造成攻击力*20%点真实伤害</t>
-  </si>
-  <si>
-    <t>0.3,</t>
-  </si>
-  <si>
+    <t>"1,102"*a1</t>
+  </si>
+  <si>
+    <t>抽两张牌</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>2,3,3</t>
+  </si>
+  <si>
+    <t>200002,200001</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>眩晕：无法移动、无法攻击和无法施法</t>
+  </si>
+  <si>
+    <t>自身：每次造成伤害将恢复自身攻击力*10%的生命值,效果持续15秒</t>
+  </si>
+  <si>
+    <t>5,20</t>
+  </si>
+  <si>
+    <t>2.5,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"1,</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*a1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>"1,10</t>
     </r>
     <r>
@@ -554,7 +583,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -563,29 +594,164 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>"*a1</t>
     </r>
-  </si>
-  <si>
-    <t>自身：恢复30%的生命值</t>
-  </si>
-  <si>
-    <t>抽两张牌</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2,0.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标造成250%攻击力伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5,0.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复自身2.5*攻击力点生命值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标造成4次50%攻击力伤害,如果目标眩晕中,额外造成2次伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标造成5次120%攻击力伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标150%攻击力伤害，易伤+1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>引爆范围内目标的易伤效果，造成目标损失血量*20%伤害,每层易伤额外造成攻击力*10%点真实伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复自身30%最大血量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使范围内目标易伤+3，若目标生命值不为满，易伤额外+1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标300%攻击力伤害,若杀死目标,恢复300%攻击力生命值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使范围内目标易伤层数*2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使范围内目标晕眩2或3秒，易伤+3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>范围内目标</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"*a1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤：每层易伤提升1%受到的伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1,100"*a1-"2,101"|"1,100"*a2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标5次70%攻击力伤害,无视防御</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -593,166 +759,22 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>:</t>
+      <t>,</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>易伤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，若目标生命值不为满，易伤额外+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>3,</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"*a1</t>
-    </r>
-  </si>
-  <si>
-    <t>范围内目标：&amp;n点伤害,若杀死目标,恢复&amp;n点生命值</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范围内目标：当前易伤层数*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>2,3,3</t>
-  </si>
-  <si>
-    <t>200002,200001</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范围内目标：晕眩2或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3秒，易伤+3</t>
-    </r>
-  </si>
-  <si>
-    <t>"3,10001"*a1</t>
-  </si>
-  <si>
-    <t>每次受到伤害，额外受到易伤层数点的真实伤害</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>眩晕：无法移动、无法攻击和无法施法</t>
-  </si>
-  <si>
-    <t>自身：每次造成伤害将恢复自身攻击力*10%的生命值,效果持续15秒</t>
-  </si>
-  <si>
-    <t>0.2,</t>
-  </si>
-  <si>
-    <t>"1,102"*a1</t>
-  </si>
-  <si>
-    <t>5,20</t>
-  </si>
-  <si>
-    <t>自身：消耗20%最大生命值，获取5个水晶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗自身10%最大生命值，获取5个水晶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +785,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -770,6 +793,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -777,161 +801,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,194 +846,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1139,251 +855,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1409,16 +883,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1436,62 +904,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1778,19 +1208,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H2" sqref="A2:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1807,7 +1237,7 @@
     <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
@@ -1861,16 +1291,16 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
+      <c r="D2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="I2" s="1">
         <v>35001</v>
@@ -1879,19 +1309,19 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="14">
+        <v>15</v>
+      </c>
+      <c r="L2" s="12">
         <v>4</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="12">
         <v>2</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
@@ -1901,16 +1331,16 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="I3" s="1">
         <v>35002</v>
@@ -1919,19 +1349,19 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="14">
+        <v>17</v>
+      </c>
+      <c r="L3" s="12">
         <v>0.5</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <v>0.5</v>
       </c>
       <c r="N3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
@@ -1941,18 +1371,18 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>22</v>
+      <c r="D4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I4" s="1">
         <v>35003</v>
@@ -1961,19 +1391,19 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="14">
-        <v>4.15</v>
-      </c>
-      <c r="M4" s="14">
+        <v>15</v>
+      </c>
+      <c r="L4" s="12">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M4" s="12">
         <v>3.5</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:14">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
@@ -1983,18 +1413,18 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
+      <c r="D5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="I5" s="1">
         <v>35004</v>
@@ -2003,19 +1433,19 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="14">
+        <v>15</v>
+      </c>
+      <c r="L5" s="12">
         <v>2.5</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:14">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -2025,18 +1455,18 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>30</v>
+      <c r="D6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="I6" s="1">
         <v>35005</v>
@@ -2045,42 +1475,42 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="14">
+        <v>15</v>
+      </c>
+      <c r="L6" s="12">
         <v>2</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <v>0.8</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:14">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>100006</v>
       </c>
       <c r="B7" s="2">
         <v>30001</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2">
         <v>35006</v>
@@ -2089,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L7" s="2">
         <v>1.6</v>
@@ -2101,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>100007</v>
       </c>
@@ -2111,15 +1541,15 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10" t="s">
-        <v>37</v>
+      <c r="D8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="I8" s="1">
         <v>35007</v>
@@ -2128,19 +1558,19 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="14">
+        <v>15</v>
+      </c>
+      <c r="L8" s="12">
         <v>4.5</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>2</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:14">
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
@@ -2150,16 +1580,16 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I9" s="1">
         <v>35002</v>
@@ -2167,13 +1597,13 @@
       <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:14">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -2187,22 +1617,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:14">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>100010</v>
       </c>
@@ -2216,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="I11" s="1">
         <v>35008</v>
@@ -2231,19 +1661,19 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="14">
+        <v>15</v>
+      </c>
+      <c r="L11" s="12">
         <v>2</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <v>0.25</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:14">
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>100011</v>
       </c>
@@ -2253,18 +1683,18 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I12" s="1">
         <v>35009</v>
@@ -2273,19 +1703,19 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="14">
+        <v>15</v>
+      </c>
+      <c r="L12" s="12">
         <v>3.3</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="12">
         <v>2</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:14">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>100012</v>
       </c>
@@ -2299,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="I13" s="1">
         <v>35010</v>
@@ -2314,19 +1744,19 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="14">
+        <v>15</v>
+      </c>
+      <c r="L13" s="12">
         <v>0.52</v>
       </c>
-      <c r="M13" s="14">
-        <v>0.117</v>
+      <c r="M13" s="12">
+        <v>0.11700000000000001</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:14">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>100013</v>
       </c>
@@ -2340,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="I14" s="1">
         <v>35011</v>
@@ -2355,19 +1785,19 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="14">
+        <v>15</v>
+      </c>
+      <c r="L14" s="12">
         <v>1.77</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>200001</v>
       </c>
@@ -2377,26 +1807,26 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:14">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>200002</v>
       </c>
@@ -2410,11 +1840,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I16" s="3">
         <v>35013</v>
@@ -2422,13 +1852,13 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>200003</v>
       </c>
@@ -2442,22 +1872,22 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8" t="s">
-        <v>55</v>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>300001</v>
       </c>
@@ -2467,64 +1897,63 @@
       <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8" t="s">
-        <v>59</v>
+        <v>33</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N18"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <autoFilter ref="A1:N18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>